--- a/data/pca/factorExposure/factorExposure_2015-04-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-04-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02015272011022788</v>
+        <v>0.01141654604693629</v>
       </c>
       <c r="C2">
-        <v>0.0281850618353912</v>
+        <v>0.05425138289091003</v>
       </c>
       <c r="D2">
-        <v>0.1291997676103778</v>
+        <v>-0.1280951542424796</v>
       </c>
       <c r="E2">
-        <v>-0.02989681962681129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03348742240914411</v>
+      </c>
+      <c r="F2">
+        <v>-0.02786309806598023</v>
+      </c>
+      <c r="G2">
+        <v>0.05758730200953701</v>
+      </c>
+      <c r="H2">
+        <v>-0.1272729563214637</v>
+      </c>
+      <c r="I2">
+        <v>-0.06702871342855406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04397938909865532</v>
+        <v>0.01669734488314523</v>
       </c>
       <c r="C4">
-        <v>0.07153665644809319</v>
+        <v>0.1068420906416799</v>
       </c>
       <c r="D4">
-        <v>0.09200722967744195</v>
+        <v>-0.118479685809805</v>
       </c>
       <c r="E4">
-        <v>-0.1033324559580133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02101508278668038</v>
+      </c>
+      <c r="F4">
+        <v>-0.1005012178409525</v>
+      </c>
+      <c r="G4">
+        <v>-0.01524375708027813</v>
+      </c>
+      <c r="H4">
+        <v>-0.04830396887658977</v>
+      </c>
+      <c r="I4">
+        <v>0.0909840787858564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02768379382336861</v>
+        <v>0.03184174927689975</v>
       </c>
       <c r="C6">
-        <v>0.0168047424543557</v>
+        <v>0.04033923206915244</v>
       </c>
       <c r="D6">
-        <v>0.1166215361527387</v>
+        <v>-0.1109651258634708</v>
       </c>
       <c r="E6">
-        <v>-0.06748533908366519</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.06948139426973707</v>
+      </c>
+      <c r="F6">
+        <v>-0.04493057307743828</v>
+      </c>
+      <c r="G6">
+        <v>-0.0342703790241174</v>
+      </c>
+      <c r="H6">
+        <v>-0.02250380867502499</v>
+      </c>
+      <c r="I6">
+        <v>0.003903843540699875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.00164248720292006</v>
+        <v>0.006220756323670651</v>
       </c>
       <c r="C7">
-        <v>0.02557604804774304</v>
+        <v>0.0404320502630852</v>
       </c>
       <c r="D7">
-        <v>0.1048697865351331</v>
+        <v>-0.09144640595627621</v>
       </c>
       <c r="E7">
-        <v>-0.03170227991731682</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.0535628122361159</v>
+      </c>
+      <c r="F7">
+        <v>-0.008128746468612858</v>
+      </c>
+      <c r="G7">
+        <v>-0.06796589915154634</v>
+      </c>
+      <c r="H7">
+        <v>-0.05473175350056463</v>
+      </c>
+      <c r="I7">
+        <v>0.05551568602257963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.002488691375296719</v>
+        <v>-0.006921362822442323</v>
       </c>
       <c r="C8">
-        <v>0.02874949985014322</v>
+        <v>0.03924380213359062</v>
       </c>
       <c r="D8">
-        <v>0.07791246272740465</v>
+        <v>-0.06696953707545335</v>
       </c>
       <c r="E8">
-        <v>-0.04444241245161443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.04024639220810271</v>
+      </c>
+      <c r="F8">
+        <v>-0.0429887125254361</v>
+      </c>
+      <c r="G8">
+        <v>0.04282655160311057</v>
+      </c>
+      <c r="H8">
+        <v>-0.04371967476464939</v>
+      </c>
+      <c r="I8">
+        <v>0.03153494764924657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0331873617035922</v>
+        <v>0.01285657849903186</v>
       </c>
       <c r="C9">
-        <v>0.06342063910425418</v>
+        <v>0.08896634719932885</v>
       </c>
       <c r="D9">
-        <v>0.09719234033231192</v>
+        <v>-0.1037277985466037</v>
       </c>
       <c r="E9">
-        <v>-0.08302588571510804</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01912114197305629</v>
+      </c>
+      <c r="F9">
+        <v>-0.06729299104144765</v>
+      </c>
+      <c r="G9">
+        <v>-0.04072984598045736</v>
+      </c>
+      <c r="H9">
+        <v>-0.04730811385044773</v>
+      </c>
+      <c r="I9">
+        <v>0.05012615251087615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1819968557309312</v>
+        <v>0.2417359558766138</v>
       </c>
       <c r="C10">
-        <v>-0.165058407243279</v>
+        <v>-0.08762836347808391</v>
       </c>
       <c r="D10">
-        <v>-0.02249330961503808</v>
+        <v>0.01213803484338623</v>
       </c>
       <c r="E10">
-        <v>-0.03926147003641241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01759288640570153</v>
+      </c>
+      <c r="F10">
+        <v>-0.03882703506035266</v>
+      </c>
+      <c r="G10">
+        <v>0.01910205418758241</v>
+      </c>
+      <c r="H10">
+        <v>0.01015828060520395</v>
+      </c>
+      <c r="I10">
+        <v>-0.01077314229112585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.01706106319121277</v>
+        <v>0.01045636961339362</v>
       </c>
       <c r="C11">
-        <v>0.04199095698448702</v>
+        <v>0.05854313274426808</v>
       </c>
       <c r="D11">
-        <v>0.04386513120840937</v>
+        <v>-0.03868547081295545</v>
       </c>
       <c r="E11">
-        <v>0.00793724290516829</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.02571239370618307</v>
+      </c>
+      <c r="F11">
+        <v>0.0129283153326768</v>
+      </c>
+      <c r="G11">
+        <v>-0.03713165729622048</v>
+      </c>
+      <c r="H11">
+        <v>-0.02449666588750181</v>
+      </c>
+      <c r="I11">
+        <v>0.03782138615144252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01596134424261837</v>
+        <v>0.01002591282549079</v>
       </c>
       <c r="C12">
-        <v>0.04299076994433518</v>
+        <v>0.05143352445229316</v>
       </c>
       <c r="D12">
-        <v>0.05559969878739456</v>
+        <v>-0.04569474446894887</v>
       </c>
       <c r="E12">
-        <v>-0.002987351364127132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01911186018576931</v>
+      </c>
+      <c r="F12">
+        <v>0.01494654413859736</v>
+      </c>
+      <c r="G12">
+        <v>-0.06029469441054738</v>
+      </c>
+      <c r="H12">
+        <v>-0.0370933157408985</v>
+      </c>
+      <c r="I12">
+        <v>0.01246468849650784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.006042463286541024</v>
+        <v>0.002289633761429906</v>
       </c>
       <c r="C13">
-        <v>0.02647594566519745</v>
+        <v>0.05791632843282228</v>
       </c>
       <c r="D13">
-        <v>0.1213602080431433</v>
+        <v>-0.1563499311692394</v>
       </c>
       <c r="E13">
-        <v>-0.06152911272170886</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.04159616526007327</v>
+      </c>
+      <c r="F13">
+        <v>-0.03362707736481111</v>
+      </c>
+      <c r="G13">
+        <v>-0.03623777347130186</v>
+      </c>
+      <c r="H13">
+        <v>-0.09670043075109576</v>
+      </c>
+      <c r="I13">
+        <v>-0.05072746090094613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.003461593141757253</v>
+        <v>0.002697926126186684</v>
       </c>
       <c r="C14">
-        <v>0.02000083033969368</v>
+        <v>0.03469589839141684</v>
       </c>
       <c r="D14">
-        <v>0.08031781492257503</v>
+        <v>-0.09041140664140834</v>
       </c>
       <c r="E14">
-        <v>-0.02665980085443687</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.0595792372878413</v>
+      </c>
+      <c r="F14">
+        <v>-0.024959309007805</v>
+      </c>
+      <c r="G14">
+        <v>-0.07384479605869473</v>
+      </c>
+      <c r="H14">
+        <v>-0.1292898310620381</v>
+      </c>
+      <c r="I14">
+        <v>0.02340221862417194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.003280357406375566</v>
+        <v>-0.005143014670358138</v>
       </c>
       <c r="C15">
-        <v>0.01229674273136521</v>
+        <v>0.02831387678351078</v>
       </c>
       <c r="D15">
-        <v>0.03650225098975131</v>
+        <v>-0.05734257307441052</v>
       </c>
       <c r="E15">
-        <v>-0.003297707060737656</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.02196837511676729</v>
+      </c>
+      <c r="F15">
+        <v>-0.006220476201356425</v>
+      </c>
+      <c r="G15">
+        <v>-0.01308895318862036</v>
+      </c>
+      <c r="H15">
+        <v>-0.05367406064393442</v>
+      </c>
+      <c r="I15">
+        <v>0.03049027184270557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01616376757405812</v>
+        <v>0.009311487049708704</v>
       </c>
       <c r="C16">
-        <v>0.03878077987335381</v>
+        <v>0.05100833478085468</v>
       </c>
       <c r="D16">
-        <v>0.04907109010816368</v>
+        <v>-0.04066686438597725</v>
       </c>
       <c r="E16">
-        <v>-0.003683666771199895</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02595295536658428</v>
+      </c>
+      <c r="F16">
+        <v>0.006537276461663919</v>
+      </c>
+      <c r="G16">
+        <v>-0.04451479710247047</v>
+      </c>
+      <c r="H16">
+        <v>-0.02074007418319539</v>
+      </c>
+      <c r="I16">
+        <v>0.0253756773864734</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>8.550150627212549e-06</v>
+        <v>-0.002706285046903387</v>
       </c>
       <c r="C19">
-        <v>0.02130053674126054</v>
+        <v>0.01716854679415319</v>
       </c>
       <c r="D19">
-        <v>0.06743050344677891</v>
+        <v>-0.04788598955517816</v>
       </c>
       <c r="E19">
-        <v>-0.03251669345587681</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.006507806214628628</v>
+      </c>
+      <c r="F19">
+        <v>-0.01134279802639526</v>
+      </c>
+      <c r="G19">
+        <v>-0.01108223353537557</v>
+      </c>
+      <c r="H19">
+        <v>-0.04721002549358965</v>
+      </c>
+      <c r="I19">
+        <v>-0.003497197416557153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002482450393898427</v>
+        <v>0.004528923105069498</v>
       </c>
       <c r="C20">
-        <v>0.02662905827075928</v>
+        <v>0.04287661330566934</v>
       </c>
       <c r="D20">
-        <v>0.06835471813825188</v>
+        <v>-0.08129983523732383</v>
       </c>
       <c r="E20">
-        <v>-0.04646500518034762</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02872650686584299</v>
+      </c>
+      <c r="F20">
+        <v>-0.02636013490180825</v>
+      </c>
+      <c r="G20">
+        <v>-0.04593549162078325</v>
+      </c>
+      <c r="H20">
+        <v>-0.03382074123813245</v>
+      </c>
+      <c r="I20">
+        <v>0.05263198271857511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.008401972753667193</v>
+        <v>0.004043956236879508</v>
       </c>
       <c r="C21">
-        <v>0.0313645875175759</v>
+        <v>0.04991667139931842</v>
       </c>
       <c r="D21">
-        <v>0.1228058155753333</v>
+        <v>-0.1174616537909783</v>
       </c>
       <c r="E21">
-        <v>-0.09794863273973205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03785260698882494</v>
+      </c>
+      <c r="F21">
+        <v>-0.08552078075683076</v>
+      </c>
+      <c r="G21">
+        <v>-0.0744260035290389</v>
+      </c>
+      <c r="H21">
+        <v>-0.1872320488460567</v>
+      </c>
+      <c r="I21">
+        <v>-0.02994784092429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.002139426500688601</v>
+        <v>-0.0122728493762706</v>
       </c>
       <c r="C22">
-        <v>0.07076000193196978</v>
+        <v>0.09376606191462503</v>
       </c>
       <c r="D22">
-        <v>0.2968164458622398</v>
+        <v>-0.2721443743858964</v>
       </c>
       <c r="E22">
-        <v>-0.08580208859449123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.08566996487532137</v>
+      </c>
+      <c r="F22">
+        <v>-0.02592297179358558</v>
+      </c>
+      <c r="G22">
+        <v>0.5300127033730044</v>
+      </c>
+      <c r="H22">
+        <v>0.1543948672252727</v>
+      </c>
+      <c r="I22">
+        <v>-0.04793268932271342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.00255910932760201</v>
+        <v>-0.00903818906042224</v>
       </c>
       <c r="C23">
-        <v>0.07104423339701847</v>
+        <v>0.09554778579565934</v>
       </c>
       <c r="D23">
-        <v>0.2957935899238052</v>
+        <v>-0.2745343946411126</v>
       </c>
       <c r="E23">
-        <v>-0.08596772333920488</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.08056101857801523</v>
+      </c>
+      <c r="F23">
+        <v>-0.02895531919826506</v>
+      </c>
+      <c r="G23">
+        <v>0.5131745361148526</v>
+      </c>
+      <c r="H23">
+        <v>0.1460712063211533</v>
+      </c>
+      <c r="I23">
+        <v>-0.04731482300457638</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02246725449866444</v>
+        <v>0.01026921640977932</v>
       </c>
       <c r="C24">
-        <v>0.05852671403803995</v>
+        <v>0.06795817062482834</v>
       </c>
       <c r="D24">
-        <v>0.05590990973313585</v>
+        <v>-0.0431327685060954</v>
       </c>
       <c r="E24">
-        <v>-0.003457928418603481</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.03188844940034054</v>
+      </c>
+      <c r="F24">
+        <v>0.005594483719633188</v>
+      </c>
+      <c r="G24">
+        <v>-0.04716763384119775</v>
+      </c>
+      <c r="H24">
+        <v>-0.0482729553383768</v>
+      </c>
+      <c r="I24">
+        <v>0.03759943853004221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02276230444229711</v>
+        <v>0.0139730724584566</v>
       </c>
       <c r="C25">
-        <v>0.0507223297715694</v>
+        <v>0.06263221435640512</v>
       </c>
       <c r="D25">
-        <v>0.05464698224509932</v>
+        <v>-0.04766892607175694</v>
       </c>
       <c r="E25">
-        <v>-0.01081922961641263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01860092148339197</v>
+      </c>
+      <c r="F25">
+        <v>0.004516899725137026</v>
+      </c>
+      <c r="G25">
+        <v>-0.03623875390150368</v>
+      </c>
+      <c r="H25">
+        <v>-0.01958976035346582</v>
+      </c>
+      <c r="I25">
+        <v>0.02374863001975504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01051889408490353</v>
+        <v>0.01746746094418314</v>
       </c>
       <c r="C26">
-        <v>0.01639447174400647</v>
+        <v>0.02914126120678012</v>
       </c>
       <c r="D26">
-        <v>0.06232699574915602</v>
+        <v>-0.0548752051774898</v>
       </c>
       <c r="E26">
-        <v>-0.03362193155035301</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04149637023032716</v>
+      </c>
+      <c r="F26">
+        <v>-0.04337786216878825</v>
+      </c>
+      <c r="G26">
+        <v>-0.04625462201477803</v>
+      </c>
+      <c r="H26">
+        <v>-0.0916463525521337</v>
+      </c>
+      <c r="I26">
+        <v>0.02910823083983537</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2653932727815078</v>
+        <v>0.3170469983471115</v>
       </c>
       <c r="C28">
-        <v>-0.1902038541389606</v>
+        <v>-0.08798653268734574</v>
       </c>
       <c r="D28">
-        <v>-0.009649029884977133</v>
+        <v>0.02604765938555335</v>
       </c>
       <c r="E28">
-        <v>-0.0346036882056473</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.04988109906195232</v>
+      </c>
+      <c r="F28">
+        <v>-0.04247948971634728</v>
+      </c>
+      <c r="G28">
+        <v>0.0578905591316734</v>
+      </c>
+      <c r="H28">
+        <v>-0.03124425574138083</v>
+      </c>
+      <c r="I28">
+        <v>0.007701726622384528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.001996532828811379</v>
+        <v>0.0009256530179168199</v>
       </c>
       <c r="C29">
-        <v>0.02403349899428184</v>
+        <v>0.04049225970942008</v>
       </c>
       <c r="D29">
-        <v>0.07608764456632729</v>
+        <v>-0.09191523661506183</v>
       </c>
       <c r="E29">
-        <v>-0.03617697644051977</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.06690998388153964</v>
+      </c>
+      <c r="F29">
+        <v>-0.02740585801430882</v>
+      </c>
+      <c r="G29">
+        <v>-0.09907029106682559</v>
+      </c>
+      <c r="H29">
+        <v>-0.1427013004294052</v>
+      </c>
+      <c r="I29">
+        <v>0.02589806687375171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02525173030487076</v>
+        <v>0.01398706699630906</v>
       </c>
       <c r="C30">
-        <v>0.06984819788252906</v>
+        <v>0.09544465878068843</v>
       </c>
       <c r="D30">
-        <v>0.1434184932785936</v>
+        <v>-0.1262246604096149</v>
       </c>
       <c r="E30">
-        <v>-0.05022960348248629</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.06209616063733198</v>
+      </c>
+      <c r="F30">
+        <v>-0.02134904017035156</v>
+      </c>
+      <c r="G30">
+        <v>-0.01200435530759432</v>
+      </c>
+      <c r="H30">
+        <v>-0.03456914852907594</v>
+      </c>
+      <c r="I30">
+        <v>0.06151121698295419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.03565469295049704</v>
+        <v>0.007615527155717474</v>
       </c>
       <c r="C31">
-        <v>0.08480267579981081</v>
+        <v>0.09554795750378252</v>
       </c>
       <c r="D31">
-        <v>0.05604591170638544</v>
+        <v>-0.03765940507572148</v>
       </c>
       <c r="E31">
-        <v>-0.02223035545181073</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02151717012547448</v>
+      </c>
+      <c r="F31">
+        <v>-0.01580749249378014</v>
+      </c>
+      <c r="G31">
+        <v>-0.02092845262621189</v>
+      </c>
+      <c r="H31">
+        <v>-0.03829132989788391</v>
+      </c>
+      <c r="I31">
+        <v>0.02059999019203509</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01793845041214509</v>
+        <v>0.01253976784257947</v>
       </c>
       <c r="C32">
-        <v>0.03916299811958329</v>
+        <v>0.05331986455313351</v>
       </c>
       <c r="D32">
-        <v>0.06791443691607717</v>
+        <v>-0.07873064746971313</v>
       </c>
       <c r="E32">
-        <v>-0.05162047759902779</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.002768527692155317</v>
+      </c>
+      <c r="F32">
+        <v>-0.04294632030115584</v>
+      </c>
+      <c r="G32">
+        <v>-0.02717973791868716</v>
+      </c>
+      <c r="H32">
+        <v>-0.06288520238233491</v>
+      </c>
+      <c r="I32">
+        <v>0.003003547174431212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.006446402094666629</v>
+        <v>0.00596459328984464</v>
       </c>
       <c r="C33">
-        <v>0.04267212238553306</v>
+        <v>0.0620453783827917</v>
       </c>
       <c r="D33">
-        <v>0.1117485783451135</v>
+        <v>-0.1138251788982602</v>
       </c>
       <c r="E33">
-        <v>-0.05392926699327599</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03519812955868772</v>
+      </c>
+      <c r="F33">
+        <v>-0.02921203441190648</v>
+      </c>
+      <c r="G33">
+        <v>-0.03101124928666518</v>
+      </c>
+      <c r="H33">
+        <v>-0.04994861509557099</v>
+      </c>
+      <c r="I33">
+        <v>0.02244225409857856</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02018637652331269</v>
+        <v>0.008043028436830812</v>
       </c>
       <c r="C34">
-        <v>0.05966398695357018</v>
+        <v>0.06265322112931582</v>
       </c>
       <c r="D34">
-        <v>0.05489847753075065</v>
+        <v>-0.0257543246009681</v>
       </c>
       <c r="E34">
-        <v>0.03561508314369698</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02951087243492129</v>
+      </c>
+      <c r="F34">
+        <v>0.03956721115900543</v>
+      </c>
+      <c r="G34">
+        <v>-0.03594929846011984</v>
+      </c>
+      <c r="H34">
+        <v>-0.02904170658902535</v>
+      </c>
+      <c r="I34">
+        <v>0.01506443896027546</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.003188368010912083</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.01268871948331825</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03232110430565148</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.007985632989363787</v>
+      </c>
+      <c r="F35">
+        <v>-0.01599595441563995</v>
+      </c>
+      <c r="G35">
+        <v>-0.0406543255654368</v>
+      </c>
+      <c r="H35">
+        <v>-0.05105102950253216</v>
+      </c>
+      <c r="I35">
+        <v>0.02099675264704133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.006644789252709138</v>
+        <v>0.01121717177691571</v>
       </c>
       <c r="C36">
-        <v>0.009143624383560338</v>
+        <v>0.02393814937845168</v>
       </c>
       <c r="D36">
-        <v>0.06660754244354646</v>
+        <v>-0.06839650925059668</v>
       </c>
       <c r="E36">
-        <v>-0.05596232602699446</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.03422450179886417</v>
+      </c>
+      <c r="F36">
+        <v>-0.04799369468147345</v>
+      </c>
+      <c r="G36">
+        <v>-0.03333799574476639</v>
+      </c>
+      <c r="H36">
+        <v>-0.06021456745479439</v>
+      </c>
+      <c r="I36">
+        <v>0.02214427226813995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.007219438026319639</v>
+        <v>0.01031477309170679</v>
       </c>
       <c r="C38">
-        <v>0.009313981233864812</v>
+        <v>0.02756429563745567</v>
       </c>
       <c r="D38">
-        <v>0.07244085930938422</v>
+        <v>-0.08145539603646727</v>
       </c>
       <c r="E38">
-        <v>-0.01011778372379141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.01161491666450626</v>
+      </c>
+      <c r="F38">
+        <v>-0.001054823504158185</v>
+      </c>
+      <c r="G38">
+        <v>-0.003904994281473739</v>
+      </c>
+      <c r="H38">
+        <v>-0.0664357295950605</v>
+      </c>
+      <c r="I38">
+        <v>0.05916209647226397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01540757107397487</v>
+        <v>0.003965740573901659</v>
       </c>
       <c r="C39">
-        <v>0.06097946591047922</v>
+        <v>0.08073187201450345</v>
       </c>
       <c r="D39">
-        <v>0.1004091987631458</v>
+        <v>-0.08653145981659395</v>
       </c>
       <c r="E39">
-        <v>-0.01046912895614785</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.0572714626983534</v>
+      </c>
+      <c r="F39">
+        <v>0.006479918509894405</v>
+      </c>
+      <c r="G39">
+        <v>-0.07048220712191725</v>
+      </c>
+      <c r="H39">
+        <v>-0.07116688899016618</v>
+      </c>
+      <c r="I39">
+        <v>0.04553003442660445</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01839102633464103</v>
+        <v>0.01430097774474883</v>
       </c>
       <c r="C40">
-        <v>0.02365472689099373</v>
+        <v>0.04356821559022325</v>
       </c>
       <c r="D40">
-        <v>0.1076623786780539</v>
+        <v>-0.09157687371915871</v>
       </c>
       <c r="E40">
-        <v>-0.003943867893784512</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.0554491862335133</v>
+      </c>
+      <c r="F40">
+        <v>0.03012847485185899</v>
+      </c>
+      <c r="G40">
+        <v>0.007212374329717259</v>
+      </c>
+      <c r="H40">
+        <v>-0.09859837602299173</v>
+      </c>
+      <c r="I40">
+        <v>-0.01076836235533123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.009620017688738981</v>
+        <v>0.01593856947013389</v>
       </c>
       <c r="C41">
-        <v>0.005501423372616822</v>
+        <v>0.02090102915863517</v>
       </c>
       <c r="D41">
-        <v>0.03177933588919837</v>
+        <v>-0.04123199266187869</v>
       </c>
       <c r="E41">
-        <v>-0.02735979368516828</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.004635427416797616</v>
+      </c>
+      <c r="F41">
+        <v>-0.02339976453800424</v>
+      </c>
+      <c r="G41">
+        <v>-0.01646146854558414</v>
+      </c>
+      <c r="H41">
+        <v>-0.03991588214554609</v>
+      </c>
+      <c r="I41">
+        <v>0.02049031761789395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.0007197056882100978</v>
+        <v>0.008049641488378225</v>
       </c>
       <c r="C43">
-        <v>0.004899602869482613</v>
+        <v>0.01732135401700956</v>
       </c>
       <c r="D43">
-        <v>0.0486794668625504</v>
+        <v>-0.05047069220833832</v>
       </c>
       <c r="E43">
-        <v>-0.02485537063938728</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.0125785458444425</v>
+      </c>
+      <c r="F43">
+        <v>-0.02220104347019269</v>
+      </c>
+      <c r="G43">
+        <v>-0.02378916725526777</v>
+      </c>
+      <c r="H43">
+        <v>-0.04858628581571545</v>
+      </c>
+      <c r="I43">
+        <v>0.04022289554152206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.0203557489693668</v>
+        <v>0.01101848508690981</v>
       </c>
       <c r="C44">
-        <v>0.02480117256317595</v>
+        <v>0.04903005996739307</v>
       </c>
       <c r="D44">
-        <v>0.08035495129112021</v>
+        <v>-0.09772087912374762</v>
       </c>
       <c r="E44">
-        <v>-0.0590844477000586</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.04411984200626104</v>
+      </c>
+      <c r="F44">
+        <v>-0.03606266453395846</v>
+      </c>
+      <c r="G44">
+        <v>-0.005681485374636796</v>
+      </c>
+      <c r="H44">
+        <v>-0.06622736909757299</v>
+      </c>
+      <c r="I44">
+        <v>0.04049566601478402</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.006673736616133559</v>
+        <v>-0.000845939574968346</v>
       </c>
       <c r="C46">
-        <v>0.03251185228042653</v>
+        <v>0.04440360737902272</v>
       </c>
       <c r="D46">
-        <v>0.07209384011940492</v>
+        <v>-0.06718208179734433</v>
       </c>
       <c r="E46">
-        <v>-0.02901181809509918</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.04823602660329962</v>
+      </c>
+      <c r="F46">
+        <v>-0.02915535647971712</v>
+      </c>
+      <c r="G46">
+        <v>-0.05883822441214402</v>
+      </c>
+      <c r="H46">
+        <v>-0.114066315114065</v>
+      </c>
+      <c r="I46">
+        <v>0.04798449208914043</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07612419916044423</v>
+        <v>0.03041615902859657</v>
       </c>
       <c r="C47">
-        <v>0.108833845084241</v>
+        <v>0.1283202677579866</v>
       </c>
       <c r="D47">
-        <v>0.04242009127422912</v>
+        <v>-0.01931181965006978</v>
       </c>
       <c r="E47">
-        <v>-0.01529634264268174</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.009668591447078188</v>
+      </c>
+      <c r="F47">
+        <v>0.004943804774527963</v>
+      </c>
+      <c r="G47">
+        <v>-0.05672128810528239</v>
+      </c>
+      <c r="H47">
+        <v>-0.0208111476076246</v>
+      </c>
+      <c r="I47">
+        <v>0.03102103618767056</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.009580850948379212</v>
+        <v>0.01456903478272185</v>
       </c>
       <c r="C48">
-        <v>0.01980622410520283</v>
+        <v>0.03538867720026229</v>
       </c>
       <c r="D48">
-        <v>0.06035121075411721</v>
+        <v>-0.06949534040062437</v>
       </c>
       <c r="E48">
-        <v>-0.05295764816564293</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.0239395402935808</v>
+      </c>
+      <c r="F48">
+        <v>-0.05385758192988172</v>
+      </c>
+      <c r="G48">
+        <v>-0.04932373418285031</v>
+      </c>
+      <c r="H48">
+        <v>-0.09676840840859302</v>
+      </c>
+      <c r="I48">
+        <v>0.04767039367519591</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03244596592450272</v>
+        <v>0.01256922337274548</v>
       </c>
       <c r="C50">
-        <v>0.05949521122530013</v>
+        <v>0.07728535138837615</v>
       </c>
       <c r="D50">
-        <v>0.05474835158634431</v>
+        <v>-0.0460255417461633</v>
       </c>
       <c r="E50">
-        <v>-0.01218694121607422</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01672038336442229</v>
+      </c>
+      <c r="F50">
+        <v>-0.008187306769730836</v>
+      </c>
+      <c r="G50">
+        <v>-0.007600217285295997</v>
+      </c>
+      <c r="H50">
+        <v>-0.02579403079544219</v>
+      </c>
+      <c r="I50">
+        <v>0.02870902966976969</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.002220944948864072</v>
+        <v>-0.0005925015441736005</v>
       </c>
       <c r="C51">
-        <v>0.006166577947222604</v>
+        <v>0.01811204271029267</v>
       </c>
       <c r="D51">
-        <v>0.04826646607695802</v>
+        <v>-0.04846108535238228</v>
       </c>
       <c r="E51">
-        <v>-0.02234806980497563</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03943470933123382</v>
+      </c>
+      <c r="F51">
+        <v>-0.0352636854897878</v>
+      </c>
+      <c r="G51">
+        <v>-0.009045376579050409</v>
+      </c>
+      <c r="H51">
+        <v>-0.07274273309303265</v>
+      </c>
+      <c r="I51">
+        <v>0.008005792302788497</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1066718779402044</v>
+        <v>0.05367297606608027</v>
       </c>
       <c r="C53">
-        <v>0.1275842008040746</v>
+        <v>0.1593258860354874</v>
       </c>
       <c r="D53">
-        <v>-0.01345421351172309</v>
+        <v>0.02372282656408867</v>
       </c>
       <c r="E53">
-        <v>-0.0374995267491291</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02958128805331482</v>
+      </c>
+      <c r="F53">
+        <v>-0.04357299814376316</v>
+      </c>
+      <c r="G53">
+        <v>-0.009077515476945188</v>
+      </c>
+      <c r="H53">
+        <v>-0.009613872779640497</v>
+      </c>
+      <c r="I53">
+        <v>0.01489436286986814</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01074646282298232</v>
+        <v>0.01092343578717833</v>
       </c>
       <c r="C54">
-        <v>0.02352811021624933</v>
+        <v>0.04086405186561239</v>
       </c>
       <c r="D54">
-        <v>0.08208437252633057</v>
+        <v>-0.07472927745972188</v>
       </c>
       <c r="E54">
-        <v>-0.01400513379546449</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.02370623148914443</v>
+      </c>
+      <c r="F54">
+        <v>-0.002493622933658689</v>
+      </c>
+      <c r="G54">
+        <v>-0.02652477316374297</v>
+      </c>
+      <c r="H54">
+        <v>-0.0705119769806799</v>
+      </c>
+      <c r="I54">
+        <v>0.05200994895213827</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09233054348193505</v>
+        <v>0.0408925398615369</v>
       </c>
       <c r="C55">
-        <v>0.1085518291362821</v>
+        <v>0.1315350891886612</v>
       </c>
       <c r="D55">
-        <v>0.002142929100209938</v>
+        <v>0.03819275804826139</v>
       </c>
       <c r="E55">
-        <v>0.002905809207520055</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.006057851241651017</v>
+      </c>
+      <c r="F55">
+        <v>-0.002967245767406818</v>
+      </c>
+      <c r="G55">
+        <v>-0.001505253143117157</v>
+      </c>
+      <c r="H55">
+        <v>-0.00531842517252234</v>
+      </c>
+      <c r="I55">
+        <v>-0.007223417672109343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1317108901224299</v>
+        <v>0.05533368113480787</v>
       </c>
       <c r="C56">
-        <v>0.1489481103363836</v>
+        <v>0.1905262591991875</v>
       </c>
       <c r="D56">
-        <v>0.002111948432778184</v>
+        <v>0.04153834418377549</v>
       </c>
       <c r="E56">
-        <v>0.01305028805652613</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.02866303357664569</v>
+      </c>
+      <c r="F56">
+        <v>-0.004757576719077913</v>
+      </c>
+      <c r="G56">
+        <v>0.03492831130527099</v>
+      </c>
+      <c r="H56">
+        <v>-0.03442545301283585</v>
+      </c>
+      <c r="I56">
+        <v>0.0030001494491176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.007618673847953879</v>
+        <v>0.002927048375093865</v>
       </c>
       <c r="C58">
-        <v>0.01715286251143526</v>
+        <v>0.06224470721138025</v>
       </c>
       <c r="D58">
-        <v>0.2067968915160806</v>
+        <v>-0.281702485551997</v>
       </c>
       <c r="E58">
-        <v>-0.1383525130550145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.04055075974684906</v>
+      </c>
+      <c r="F58">
+        <v>-0.129696652593028</v>
+      </c>
+      <c r="G58">
+        <v>0.1595910103889066</v>
+      </c>
+      <c r="H58">
+        <v>-0.003209519105483555</v>
+      </c>
+      <c r="I58">
+        <v>0.03897991679153193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1854575622178741</v>
+        <v>0.2541870723508343</v>
       </c>
       <c r="C59">
-        <v>-0.1384547575051948</v>
+        <v>-0.05649033412263838</v>
       </c>
       <c r="D59">
-        <v>0.03472362312392521</v>
+        <v>-0.05055881379829397</v>
       </c>
       <c r="E59">
-        <v>-0.02712031839347734</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02196046423287365</v>
+      </c>
+      <c r="F59">
+        <v>-0.02169764510904169</v>
+      </c>
+      <c r="G59">
+        <v>0.01311484110472024</v>
+      </c>
+      <c r="H59">
+        <v>-0.01748400767928258</v>
+      </c>
+      <c r="I59">
+        <v>-0.03148147013707122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1817105359676462</v>
+        <v>0.1504263675702514</v>
       </c>
       <c r="C60">
-        <v>0.1021817950386137</v>
+        <v>0.172032471979043</v>
       </c>
       <c r="D60">
-        <v>0.2303390150328485</v>
+        <v>-0.08554430178413798</v>
       </c>
       <c r="E60">
-        <v>0.02532045149761369</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1489241247024829</v>
+      </c>
+      <c r="F60">
+        <v>0.1897203078020676</v>
+      </c>
+      <c r="G60">
+        <v>-0.1037263296169226</v>
+      </c>
+      <c r="H60">
+        <v>0.2924215456874771</v>
+      </c>
+      <c r="I60">
+        <v>-0.1769297728754026</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02440315308950874</v>
+        <v>0.01105275652263814</v>
       </c>
       <c r="C61">
-        <v>0.05595601584005215</v>
+        <v>0.07711352215068959</v>
       </c>
       <c r="D61">
-        <v>0.07969128119809604</v>
+        <v>-0.06775180849157975</v>
       </c>
       <c r="E61">
-        <v>-0.003135239085002666</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.04106908512764629</v>
+      </c>
+      <c r="F61">
+        <v>0.01498252790675835</v>
+      </c>
+      <c r="G61">
+        <v>-0.07047560186715089</v>
+      </c>
+      <c r="H61">
+        <v>-0.05279712477556919</v>
+      </c>
+      <c r="I61">
+        <v>0.02971102235695049</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01015884345593117</v>
+        <v>0.009899302782548183</v>
       </c>
       <c r="C63">
-        <v>0.02752026700650212</v>
+        <v>0.04127622687474443</v>
       </c>
       <c r="D63">
-        <v>0.07762351123220072</v>
+        <v>-0.05563287528768823</v>
       </c>
       <c r="E63">
-        <v>-0.03060546919056054</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.05829161716915846</v>
+      </c>
+      <c r="F63">
+        <v>-0.02147546641311563</v>
+      </c>
+      <c r="G63">
+        <v>-0.03896930266397079</v>
+      </c>
+      <c r="H63">
+        <v>-0.06179611577018044</v>
+      </c>
+      <c r="I63">
+        <v>0.03695931266820173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.0550508577405919</v>
+        <v>0.01527955186484966</v>
       </c>
       <c r="C64">
-        <v>0.08670024227409197</v>
+        <v>0.102798920261935</v>
       </c>
       <c r="D64">
-        <v>0.01301432404510307</v>
+        <v>-0.008836110884618206</v>
       </c>
       <c r="E64">
-        <v>-0.02307732612097503</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02178622496916912</v>
+      </c>
+      <c r="F64">
+        <v>-0.01951437642872091</v>
+      </c>
+      <c r="G64">
+        <v>-0.04575049522815165</v>
+      </c>
+      <c r="H64">
+        <v>-0.02214248180912799</v>
+      </c>
+      <c r="I64">
+        <v>0.04879145972210938</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02476787227217379</v>
+        <v>0.02294336130416487</v>
       </c>
       <c r="C65">
-        <v>0.01956198677116192</v>
+        <v>0.04727625373553518</v>
       </c>
       <c r="D65">
-        <v>0.1044301873199619</v>
+        <v>-0.1077938120567592</v>
       </c>
       <c r="E65">
-        <v>-0.03282309753512151</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.05387944142673703</v>
+      </c>
+      <c r="F65">
+        <v>0.005427444796639352</v>
+      </c>
+      <c r="G65">
+        <v>-0.03816873335859105</v>
+      </c>
+      <c r="H65">
+        <v>0.02661120517415369</v>
+      </c>
+      <c r="I65">
+        <v>0.03297599204007658</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02121569221779807</v>
+        <v>0.001374615846327003</v>
       </c>
       <c r="C66">
-        <v>0.07171601305902683</v>
+        <v>0.1006864160986334</v>
       </c>
       <c r="D66">
-        <v>0.1194444565376188</v>
+        <v>-0.1142398689319985</v>
       </c>
       <c r="E66">
-        <v>-0.01187735896956059</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.05111927862971928</v>
+      </c>
+      <c r="F66">
+        <v>0.007781334521237825</v>
+      </c>
+      <c r="G66">
+        <v>-0.03720961230664944</v>
+      </c>
+      <c r="H66">
+        <v>-0.05869148001782917</v>
+      </c>
+      <c r="I66">
+        <v>0.03932624406662055</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02378384553671783</v>
+        <v>0.01987866440327584</v>
       </c>
       <c r="C67">
-        <v>0.02160462236510886</v>
+        <v>0.03734020119485894</v>
       </c>
       <c r="D67">
-        <v>0.04084754664135729</v>
+        <v>-0.03976446762208129</v>
       </c>
       <c r="E67">
-        <v>0.02099695111215259</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01501503618880714</v>
+      </c>
+      <c r="F67">
+        <v>0.02846001246834427</v>
+      </c>
+      <c r="G67">
+        <v>-0.01855120672061844</v>
+      </c>
+      <c r="H67">
+        <v>-0.05444543709001656</v>
+      </c>
+      <c r="I67">
+        <v>0.04828225083612549</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2083980857677747</v>
+        <v>0.278016992192377</v>
       </c>
       <c r="C68">
-        <v>-0.1496904919563816</v>
+        <v>-0.06224711678496522</v>
       </c>
       <c r="D68">
-        <v>0.0279662208053564</v>
+        <v>-0.02795643235690989</v>
       </c>
       <c r="E68">
-        <v>-0.0232686588328786</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.0006892761044909596</v>
+      </c>
+      <c r="F68">
+        <v>-0.02271110201529719</v>
+      </c>
+      <c r="G68">
+        <v>0.08125695252618133</v>
+      </c>
+      <c r="H68">
+        <v>0.008455404802209387</v>
+      </c>
+      <c r="I68">
+        <v>-0.01164757862840133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05324760981528843</v>
+        <v>0.01492447327209455</v>
       </c>
       <c r="C69">
-        <v>0.1186935725871181</v>
+        <v>0.118210815351244</v>
       </c>
       <c r="D69">
-        <v>0.06713328388091645</v>
+        <v>-0.02181547577658788</v>
       </c>
       <c r="E69">
-        <v>-0.01397427333045356</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.0109810290537341</v>
+      </c>
+      <c r="F69">
+        <v>0.01228653839099256</v>
+      </c>
+      <c r="G69">
+        <v>-0.03778092733641482</v>
+      </c>
+      <c r="H69">
+        <v>-0.02035408325604053</v>
+      </c>
+      <c r="I69">
+        <v>0.01456987959539397</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2167418975879743</v>
+        <v>0.2773755407593977</v>
       </c>
       <c r="C71">
-        <v>-0.1724026907725383</v>
+        <v>-0.07830219423540585</v>
       </c>
       <c r="D71">
-        <v>0.01843964125868662</v>
+        <v>-0.01479854437433669</v>
       </c>
       <c r="E71">
-        <v>-0.01059676364573481</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.001595031619278968</v>
+      </c>
+      <c r="F71">
+        <v>-0.013891074876027</v>
+      </c>
+      <c r="G71">
+        <v>0.03032992223093962</v>
+      </c>
+      <c r="H71">
+        <v>-0.01091183610007606</v>
+      </c>
+      <c r="I71">
+        <v>0.007094775949110742</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1003397042087696</v>
+        <v>0.05842378845110354</v>
       </c>
       <c r="C72">
-        <v>0.07620772846973907</v>
+        <v>0.1276743830396118</v>
       </c>
       <c r="D72">
-        <v>0.1245207014247743</v>
+        <v>-0.06150339545044632</v>
       </c>
       <c r="E72">
-        <v>-0.01451684756667635</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.07281629127041203</v>
+      </c>
+      <c r="F72">
+        <v>0.02073873171700335</v>
+      </c>
+      <c r="G72">
+        <v>-0.06677730552794262</v>
+      </c>
+      <c r="H72">
+        <v>-0.007133307816090128</v>
+      </c>
+      <c r="I72">
+        <v>0.01919226533441041</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1700058164701514</v>
+        <v>0.1417931981356568</v>
       </c>
       <c r="C73">
-        <v>0.07188904305544291</v>
+        <v>0.1523005955340085</v>
       </c>
       <c r="D73">
-        <v>0.2888494744466537</v>
+        <v>-0.0955134480058069</v>
       </c>
       <c r="E73">
-        <v>0.05985904535479222</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2691171862873051</v>
+      </c>
+      <c r="F73">
+        <v>0.2713535926015077</v>
+      </c>
+      <c r="G73">
+        <v>-0.2730502670642472</v>
+      </c>
+      <c r="H73">
+        <v>0.3458342394388153</v>
+      </c>
+      <c r="I73">
+        <v>-0.1226047886771933</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.105020989249669</v>
+        <v>0.05132916678529932</v>
       </c>
       <c r="C74">
-        <v>0.1179314233949036</v>
+        <v>0.1444614970430538</v>
       </c>
       <c r="D74">
-        <v>-0.03819217383141122</v>
+        <v>0.05065250749537165</v>
       </c>
       <c r="E74">
-        <v>-0.02371145546553029</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01307368633417403</v>
+      </c>
+      <c r="F74">
+        <v>-0.02851423460749166</v>
+      </c>
+      <c r="G74">
+        <v>0.005535523136567902</v>
+      </c>
+      <c r="H74">
+        <v>0.02231638810944067</v>
+      </c>
+      <c r="I74">
+        <v>-0.0114444043298679</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2244873314089963</v>
+        <v>0.09728311862549011</v>
       </c>
       <c r="C75">
-        <v>0.2045725490769356</v>
+        <v>0.2670064172051236</v>
       </c>
       <c r="D75">
-        <v>-0.08926650200922857</v>
+        <v>0.1313741923165134</v>
       </c>
       <c r="E75">
-        <v>0.08613335180696162</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.09374138488917139</v>
+      </c>
+      <c r="F75">
+        <v>0.04566348739873554</v>
+      </c>
+      <c r="G75">
+        <v>0.0885146147278324</v>
+      </c>
+      <c r="H75">
+        <v>-0.05663697476952997</v>
+      </c>
+      <c r="I75">
+        <v>0.06938284508541577</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1338340753490262</v>
+        <v>0.05614026788342973</v>
       </c>
       <c r="C76">
-        <v>0.1399479924580202</v>
+        <v>0.1790191812591188</v>
       </c>
       <c r="D76">
-        <v>0.0001884826861595881</v>
+        <v>0.0513300237163934</v>
       </c>
       <c r="E76">
-        <v>0.01538615622316257</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02103116372182742</v>
+      </c>
+      <c r="F76">
+        <v>0.002925543540675721</v>
+      </c>
+      <c r="G76">
+        <v>0.02265406567724938</v>
+      </c>
+      <c r="H76">
+        <v>-0.04577888544188144</v>
+      </c>
+      <c r="I76">
+        <v>0.02399534482085819</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.0172473026576783</v>
+        <v>0.001517211266320358</v>
       </c>
       <c r="C77">
-        <v>0.06972511300943941</v>
+        <v>0.1118383532706387</v>
       </c>
       <c r="D77">
-        <v>-0.02990271639524301</v>
+        <v>-0.3639967214655657</v>
       </c>
       <c r="E77">
-        <v>0.02097443806094195</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.8370684933088159</v>
+      </c>
+      <c r="F77">
+        <v>0.1902746461662007</v>
+      </c>
+      <c r="G77">
+        <v>-0.09799724867330356</v>
+      </c>
+      <c r="H77">
+        <v>0.2044132256004966</v>
+      </c>
+      <c r="I77">
+        <v>-0.01949571464234703</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02971554866163696</v>
+        <v>0.01739003077003318</v>
       </c>
       <c r="C78">
-        <v>0.07444731042259579</v>
+        <v>0.09323165403597858</v>
       </c>
       <c r="D78">
-        <v>0.1364957895386005</v>
+        <v>-0.1019149460748826</v>
       </c>
       <c r="E78">
-        <v>-0.06805840494967776</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06341050737865657</v>
+      </c>
+      <c r="F78">
+        <v>-0.0497240721676152</v>
+      </c>
+      <c r="G78">
+        <v>0.01094023505176443</v>
+      </c>
+      <c r="H78">
+        <v>-0.07278394286213062</v>
+      </c>
+      <c r="I78">
+        <v>-0.03407262019896948</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1023844597154837</v>
+        <v>0.03821167380611323</v>
       </c>
       <c r="C79">
-        <v>0.1918818482299333</v>
+        <v>0.2020497286682725</v>
       </c>
       <c r="D79">
-        <v>-0.3512728355293917</v>
+        <v>0.1153571210299184</v>
       </c>
       <c r="E79">
-        <v>-0.8386752611339872</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.0808058643324029</v>
+      </c>
+      <c r="F79">
+        <v>-0.809283627814143</v>
+      </c>
+      <c r="G79">
+        <v>-0.1769838758107772</v>
+      </c>
+      <c r="H79">
+        <v>0.383872221776241</v>
+      </c>
+      <c r="I79">
+        <v>-0.07267715505483371</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.004415183528247755</v>
+        <v>0.006067052040696313</v>
       </c>
       <c r="C80">
-        <v>0.04560404005723686</v>
+        <v>0.04521151711217371</v>
       </c>
       <c r="D80">
-        <v>0.05132632076954494</v>
+        <v>-0.03683666943598616</v>
       </c>
       <c r="E80">
-        <v>-0.008307678178133406</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04724856222179008</v>
+      </c>
+      <c r="F80">
+        <v>0.001632326483081499</v>
+      </c>
+      <c r="G80">
+        <v>-0.0179938492673046</v>
+      </c>
+      <c r="H80">
+        <v>-0.04335438129908065</v>
+      </c>
+      <c r="I80">
+        <v>-0.0792494151707985</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1146164198672449</v>
+        <v>0.04049064867709762</v>
       </c>
       <c r="C81">
-        <v>0.136356659318621</v>
+        <v>0.1646303030064238</v>
       </c>
       <c r="D81">
-        <v>-0.08497943127316572</v>
+        <v>0.08117132576402028</v>
       </c>
       <c r="E81">
-        <v>-0.004439977874710757</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04945581320798048</v>
+      </c>
+      <c r="F81">
+        <v>-0.05302351326129267</v>
+      </c>
+      <c r="G81">
+        <v>0.02553779078479308</v>
+      </c>
+      <c r="H81">
+        <v>-0.08900039732180379</v>
+      </c>
+      <c r="I81">
+        <v>0.008276340554530521</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2386071391672998</v>
+        <v>0.08383052909221972</v>
       </c>
       <c r="C82">
-        <v>0.2973758675360273</v>
+        <v>0.3107234733599033</v>
       </c>
       <c r="D82">
-        <v>-0.1621100480724491</v>
+        <v>0.2392692385557336</v>
       </c>
       <c r="E82">
-        <v>0.2294263705605158</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.07079299920303386</v>
+      </c>
+      <c r="F82">
+        <v>0.1311202413483521</v>
+      </c>
+      <c r="G82">
+        <v>0.04548730010574937</v>
+      </c>
+      <c r="H82">
+        <v>-0.1444285056852262</v>
+      </c>
+      <c r="I82">
+        <v>0.01818871274886286</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.01079570271626625</v>
+        <v>-0.01252034320325608</v>
       </c>
       <c r="C83">
-        <v>0.05331056193738304</v>
+        <v>0.02184557933023467</v>
       </c>
       <c r="D83">
-        <v>-0.004268702545888375</v>
+        <v>-0.0246157674734057</v>
       </c>
       <c r="E83">
-        <v>-0.02532951086783648</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.0890625083779068</v>
+      </c>
+      <c r="F83">
+        <v>-0.06270301220971765</v>
+      </c>
+      <c r="G83">
+        <v>-0.01974648470196999</v>
+      </c>
+      <c r="H83">
+        <v>-0.3187898089200536</v>
+      </c>
+      <c r="I83">
+        <v>-0.8779999260702473</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>5.75149079260275e-05</v>
+        <v>-0.004886855232584681</v>
       </c>
       <c r="C84">
-        <v>-0.001547689926541996</v>
+        <v>0.01735029505328725</v>
       </c>
       <c r="D84">
-        <v>-0.0005441728825979916</v>
+        <v>-0.04118716125811656</v>
       </c>
       <c r="E84">
-        <v>0.002264394783339172</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.003257808487242566</v>
+      </c>
+      <c r="F84">
+        <v>-0.02891488870094095</v>
+      </c>
+      <c r="G84">
+        <v>0.02995155775730916</v>
+      </c>
+      <c r="H84">
+        <v>-0.05089456795083305</v>
+      </c>
+      <c r="I84">
+        <v>0.06757087999257022</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1375738490986384</v>
+        <v>0.05294686124272565</v>
       </c>
       <c r="C85">
-        <v>0.1439579143112923</v>
+        <v>0.1797477631756219</v>
       </c>
       <c r="D85">
-        <v>-0.05721532536166186</v>
+        <v>0.1056296950218237</v>
       </c>
       <c r="E85">
-        <v>-0.03463977636256361</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.002580472887590677</v>
+      </c>
+      <c r="F85">
+        <v>-0.06507570399067909</v>
+      </c>
+      <c r="G85">
+        <v>0.0290757202340013</v>
+      </c>
+      <c r="H85">
+        <v>-0.0001441206867221991</v>
+      </c>
+      <c r="I85">
+        <v>0.009375999677777769</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01992860493693231</v>
+        <v>0.01519476019877803</v>
       </c>
       <c r="C86">
-        <v>0.01165971745826386</v>
+        <v>0.04120755472365564</v>
       </c>
       <c r="D86">
-        <v>0.08532920863300521</v>
+        <v>-0.1089958430507532</v>
       </c>
       <c r="E86">
-        <v>-0.0265992691731132</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.01799990292261799</v>
+      </c>
+      <c r="F86">
+        <v>-0.01524523166767342</v>
+      </c>
+      <c r="G86">
+        <v>-0.01771973999210253</v>
+      </c>
+      <c r="H86">
+        <v>0.01419736631217347</v>
+      </c>
+      <c r="I86">
+        <v>0.02853200369794055</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02157912637586851</v>
+        <v>0.01017030522306285</v>
       </c>
       <c r="C87">
-        <v>0.03122373787221527</v>
+        <v>0.06503642189030659</v>
       </c>
       <c r="D87">
-        <v>0.1172481335870247</v>
+        <v>-0.13642533090786</v>
       </c>
       <c r="E87">
-        <v>-0.06328806030331403</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.01920153999443064</v>
+      </c>
+      <c r="F87">
+        <v>-0.04330263003751449</v>
+      </c>
+      <c r="G87">
+        <v>0.01868698731212621</v>
+      </c>
+      <c r="H87">
+        <v>-0.08863906081830815</v>
+      </c>
+      <c r="I87">
+        <v>0.008322617978925126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05120250407441172</v>
+        <v>0.0326187066731284</v>
       </c>
       <c r="C88">
-        <v>0.04539261950788694</v>
+        <v>0.06933413115977435</v>
       </c>
       <c r="D88">
-        <v>0.01343618554070997</v>
+        <v>-0.01339874132077995</v>
       </c>
       <c r="E88">
-        <v>-0.0281669317185144</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02597603731380779</v>
+      </c>
+      <c r="F88">
+        <v>-0.01991424194250167</v>
+      </c>
+      <c r="G88">
+        <v>-0.02131700521111157</v>
+      </c>
+      <c r="H88">
+        <v>-0.002514567685931095</v>
+      </c>
+      <c r="I88">
+        <v>0.02617878754876876</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3272400076691072</v>
+        <v>0.4065796660896623</v>
       </c>
       <c r="C89">
-        <v>-0.3164425988983652</v>
+        <v>-0.1522895038582234</v>
       </c>
       <c r="D89">
-        <v>0.00494416576357593</v>
+        <v>-0.04275872496499961</v>
       </c>
       <c r="E89">
-        <v>-0.08422713847861808</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.04421086217809331</v>
+      </c>
+      <c r="F89">
+        <v>-0.0592732625777727</v>
+      </c>
+      <c r="G89">
+        <v>-0.04479197889627113</v>
+      </c>
+      <c r="H89">
+        <v>-0.15215196606026</v>
+      </c>
+      <c r="I89">
+        <v>-0.05304922428976623</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2633453963800379</v>
+        <v>0.3205159062787482</v>
       </c>
       <c r="C90">
-        <v>-0.2312105883107788</v>
+        <v>-0.1027449151794913</v>
       </c>
       <c r="D90">
-        <v>0.05371238464123478</v>
+        <v>-0.03136699833030099</v>
       </c>
       <c r="E90">
-        <v>0.006592620481763604</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.008229213456561857</v>
+      </c>
+      <c r="F90">
+        <v>0.008348352844981205</v>
+      </c>
+      <c r="G90">
+        <v>0.06110331751045504</v>
+      </c>
+      <c r="H90">
+        <v>-0.04121374497763661</v>
+      </c>
+      <c r="I90">
+        <v>-0.006845767978338252</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1494786737372839</v>
+        <v>0.06517219978617436</v>
       </c>
       <c r="C91">
-        <v>0.1893668169880917</v>
+        <v>0.2052595135069809</v>
       </c>
       <c r="D91">
-        <v>-0.1117979377980723</v>
+        <v>0.1128921403033206</v>
       </c>
       <c r="E91">
-        <v>-0.03638660730924975</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06579687870749576</v>
+      </c>
+      <c r="F91">
+        <v>-0.05655361612715674</v>
+      </c>
+      <c r="G91">
+        <v>0.01206879883000122</v>
+      </c>
+      <c r="H91">
+        <v>-0.001367889951531752</v>
+      </c>
+      <c r="I91">
+        <v>-0.02734195353551336</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2455233417642587</v>
+        <v>0.3397675939757733</v>
       </c>
       <c r="C92">
-        <v>-0.2584337355999942</v>
+        <v>-0.1397838456998959</v>
       </c>
       <c r="D92">
-        <v>-0.0607897413801877</v>
+        <v>-0.01443844128484368</v>
       </c>
       <c r="E92">
-        <v>-0.01542979970987051</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06678202575277198</v>
+      </c>
+      <c r="F92">
+        <v>-0.04235969480268546</v>
+      </c>
+      <c r="G92">
+        <v>0.01682023701956056</v>
+      </c>
+      <c r="H92">
+        <v>-0.01094206154659785</v>
+      </c>
+      <c r="I92">
+        <v>0.1379298799341077</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2874114411181803</v>
+        <v>0.3355510421255999</v>
       </c>
       <c r="C93">
-        <v>-0.2431995200156065</v>
+        <v>-0.1100380604860799</v>
       </c>
       <c r="D93">
-        <v>0.00462137544987771</v>
+        <v>0.01746215402416619</v>
       </c>
       <c r="E93">
-        <v>-0.01733418242988868</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02204182273240004</v>
+      </c>
+      <c r="F93">
+        <v>-0.01263040771852418</v>
+      </c>
+      <c r="G93">
+        <v>-0.00315348250123943</v>
+      </c>
+      <c r="H93">
+        <v>0.03651222250160679</v>
+      </c>
+      <c r="I93">
+        <v>0.02744379351883773</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2804243428852709</v>
+        <v>0.1202141906545754</v>
       </c>
       <c r="C94">
-        <v>0.2722290934139074</v>
+        <v>0.3387119276570189</v>
       </c>
       <c r="D94">
-        <v>-0.247498533516863</v>
+        <v>0.3562571773276317</v>
       </c>
       <c r="E94">
-        <v>0.2825683510931157</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06501576761270102</v>
+      </c>
+      <c r="F94">
+        <v>0.1377681888326246</v>
+      </c>
+      <c r="G94">
+        <v>0.2954027862141178</v>
+      </c>
+      <c r="H94">
+        <v>-0.1142028379034613</v>
+      </c>
+      <c r="I94">
+        <v>0.04204415699940584</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.008915480761703898</v>
+        <v>0.01233134716287985</v>
       </c>
       <c r="C95">
-        <v>0.04159907512069206</v>
+        <v>0.06650123888318006</v>
       </c>
       <c r="D95">
-        <v>-0.02152747696090412</v>
+        <v>-0.09822926963965803</v>
       </c>
       <c r="E95">
-        <v>0.02316111692895502</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1465330048400348</v>
+      </c>
+      <c r="F95">
+        <v>0.03419556032345323</v>
+      </c>
+      <c r="G95">
+        <v>-0.2207594183506264</v>
+      </c>
+      <c r="H95">
+        <v>-0.2001195007939111</v>
+      </c>
+      <c r="I95">
+        <v>0.188007698020354</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001919055828292892</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001014265241284557</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0001532989581467248</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003481656714775258</v>
+      </c>
+      <c r="F97">
+        <v>-0.0003261591359442554</v>
+      </c>
+      <c r="G97">
+        <v>-0.0005397033419768768</v>
+      </c>
+      <c r="H97">
+        <v>-0.001908193393092315</v>
+      </c>
+      <c r="I97">
+        <v>0.006668252104267055</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1491905579465787</v>
+        <v>0.1240450326467079</v>
       </c>
       <c r="C98">
-        <v>0.08857374974286822</v>
+        <v>0.1551572867164986</v>
       </c>
       <c r="D98">
-        <v>0.1933980781784998</v>
+        <v>-0.06012222255136209</v>
       </c>
       <c r="E98">
-        <v>0.07101784484242619</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1875417221107857</v>
+      </c>
+      <c r="F98">
+        <v>0.2238794384491682</v>
+      </c>
+      <c r="G98">
+        <v>-0.1856247706263237</v>
+      </c>
+      <c r="H98">
+        <v>0.2886273051242043</v>
+      </c>
+      <c r="I98">
+        <v>-0.1452106099662966</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.002753596642268417</v>
+        <v>0.00138847951796958</v>
       </c>
       <c r="C101">
-        <v>0.02330232323327434</v>
+        <v>0.03972653617774528</v>
       </c>
       <c r="D101">
-        <v>0.075500702769266</v>
+        <v>-0.09114454974263926</v>
       </c>
       <c r="E101">
-        <v>-0.036737532190975</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.06617375104880253</v>
+      </c>
+      <c r="F101">
+        <v>-0.02755783098549891</v>
+      </c>
+      <c r="G101">
+        <v>-0.09826697766958033</v>
+      </c>
+      <c r="H101">
+        <v>-0.1433616339128396</v>
+      </c>
+      <c r="I101">
+        <v>0.02598817452395276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1030114072054795</v>
+        <v>0.02628188634733989</v>
       </c>
       <c r="C102">
-        <v>0.1586519066340293</v>
+        <v>0.1453796844250476</v>
       </c>
       <c r="D102">
-        <v>-0.05186382277674043</v>
+        <v>0.1051900357950514</v>
       </c>
       <c r="E102">
-        <v>0.1064681820472361</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04166701979162711</v>
+      </c>
+      <c r="F102">
+        <v>0.08349870965396733</v>
+      </c>
+      <c r="G102">
+        <v>-0.01860243509926438</v>
+      </c>
+      <c r="H102">
+        <v>-0.02825100974066991</v>
+      </c>
+      <c r="I102">
+        <v>-0.01241227287049067</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
